--- a/варианты2025/горбачёв/3/4.xlsx
+++ b/варианты2025/горбачёв/3/4.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gutnikov\варианты2025\горбачёв\3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DCC1C-E2C0-4000-A0A6-0120812E694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2932470-6D1A-4084-8A62-23E73E12E1AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>катамаран</t>
   </si>
@@ -57,13 +51,13 @@
     <t>м</t>
   </si>
   <si>
-    <t>а</t>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -207,7 +201,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -401,18 +395,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8262CD-9D5B-4BF8-9DD5-1E0D8285BA33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,26 +415,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
+      <c r="G1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="G2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
@@ -454,12 +439,6 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -469,9 +448,6 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
         <v>3</v>
       </c>
     </row>
@@ -485,25 +461,16 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <f>4*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <f>4*2</f>
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>4*1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -511,12 +478,9 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
         <v>3</v>
       </c>
     </row>
@@ -528,24 +492,26 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>SUM(B4:B9)</f>
-        <v>17</v>
+        <f>SUM(B4:B9)+B7+B7+B7</f>
+        <v>26</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:D10" si="0">SUM(C4:C9)</f>
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(C4:C9)+C7+C7+C7</f>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
